--- a/forwardprimer-v3_31.xlsx
+++ b/forwardprimer-v3_31.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_31" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F2881-CGACTACTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGACTACTTGTCGTCGGCAGCGTC</t>
+    <t>F2881-TCTCAGATCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCAGATCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F2882-GGTGAAGGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTGAAGGTTTCGTCGGCAGCGTC</t>
+    <t>F2882-ACCACTAGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCACTAGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F2883-ACCTCGATCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTCGATCTTCGTCGGCAGCGTC</t>
+    <t>F2883-TTGACTACGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGACTACGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F2884-TCGAGAGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGAGAGTGTTCGTCGGCAGCGTC</t>
+    <t>F2884-CAGACTACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGACTACAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F2885-TGTTCGACAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTTCGACAATCGTCGGCAGCGTC</t>
+    <t>F2885-ACAGGACTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGGACTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F2886-GTCGTACTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCGTACTCATCGTCGGCAGCGTC</t>
+    <t>F2886-CTGAACACTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGAACACTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F2887-CCTTCTTCCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTTCTTCCATCGTCGGCAGCGTC</t>
+    <t>F2887-CAGAAGGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGAAGGTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F2888-GGTAGAGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTAGAGTTGTCGTCGGCAGCGTC</t>
+    <t>F2888-AGAGACACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGACACAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F2889-GTTCTCGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCTCGTAGTCGTCGGCAGCGTC</t>
+    <t>F2889-TGGACTTGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGACTTGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F2890-GTGCTCATCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGCTCATCATCGTCGGCAGCGTC</t>
+    <t>F2890-GTGTTCGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTTCGATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F2891-TCATGAGCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCATGAGCTGTCGTCGGCAGCGTC</t>
+    <t>F2891-ACGAACCAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGAACCAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F2892-GAACCTCAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACCTCAAGTCGTCGGCAGCGTC</t>
+    <t>F2892-TGTTCTGACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTTCTGACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F2893-ACGAGTTCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGAGTTCAGTCGTCGGCAGCGTC</t>
+    <t>F2893-GAACCATCGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACCATCGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>F2894-TGCACTAGGT</t>
+    <t>F2894-AGTAGTGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTAGTGTGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>F2895-GTAGAACTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGAACTGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>F2896-TCGTGACAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGTGACAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>F2897-AGAGCAGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGCAGTAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>F2898-CCAGGTACTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCAGGTACTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>F2899-CACACGAGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACACGAGATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>F2900-ACCATGACGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCATGACGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>F2901-TCGATGCATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGATGCATCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>F2902-TAGGTACACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGGTACACATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>F2903-ATGCAGATGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGCAGATGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>F2904-AACACCAAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACACCAAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>F2905-ATCATCCACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCATCCACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>F2906-CAAGACGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGACGTACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>F2907-TGTGGATCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGGATCAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>F2908-TGCACTAGGT</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACTGCACTAGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>F2895-TTCTGGAGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCTGGAGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>F2896-CGTCACAGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTCACAGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>F2897-GAACGACTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACGACTCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>F2898-AACTTCCAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTTCCAAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>F2899-ACCAGTCAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCAGTCAAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>F2900-GAACGTAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACGTAGAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>F2901-GGTACGAGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTACGAGATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>F2902-TGTGTACTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGTACTGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>F2903-AGTACTGGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTACTGGAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>F2904-CATGACAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGACAGTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>F2905-GTTCTCTCCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCTCTCCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>F2906-TGTTGCTCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTTGCTCTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>F2907-ATCACGAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCACGAGCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>F2908-TCACTGACTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACTGACTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>C5</t>
   </si>
   <si>
-    <t>F2909-GGAACCAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGAACCAGAATCGTCGGCAGCGTC</t>
+    <t>F2909-CAGTGGTCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGTGGTCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>F2910-TCAGACTCAA</t>
+    <t>F2910-ACTCGTCATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCGTCATGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>F2911-ACGTGTTGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGTGTTGCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>F2912-AGAGAACGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGAACGTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>F2913-CTCCTCAAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCCTCAAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>F2914-TGTTCCAGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTTCCAGTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>F2915-TTGACTGGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGACTGGTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>F2916-TTCACTGCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCACTGCATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>F2917-ACCACTGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCACTGTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>F2918-AACCACTTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCACTTCCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>F2919-AACGTACTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACGTACTACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>F2920-GTTCGAAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTCGAAGACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>F2921-GTTCGATCGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTCGATCGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>F2922-GTGAACAACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGAACAACATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>F2923-CTCAGGATGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCAGGATGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>F2924-GATCCACCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCCACCAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>F2925-GTAGTCTGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGTCTGAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>F2926-ATCTGTCACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCTGTCACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>F2927-TGGTGTACTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGTGTACTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>F2928-ATCTCCAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCTCCAGGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F2929-TAGCTTCTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGCTTCTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F2930-CGTAGTCGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTAGTCGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>F2931-TCTGTAGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGTAGTTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>F2932-AAGTGCAGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTGCAGTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>F2933-CATCGTCACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCGTCACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>F2934-GTAGATGCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGATGCATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>F2935-GAAGGTGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGGTGTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>F2936-ACTCATCCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCATCCAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>F2937-ACTGAAGGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGAAGGTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>F2938-AACCTGTTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCTGTTCGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>F2939-ATGCACTGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGCACTGTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>F2940-GTGATGAGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGATGAGTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2941-TCAACTCTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAACTCTGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F2942-TCAGACTCAA</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACTCAGACTCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>F2911-CTACGACACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACGACACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>F2912-GTTGGATGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTGGATGAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>F2913-AACTCCTCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTCCTCTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>F2914-TCTCCTTCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCCTTCAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>F2915-TCGTTGGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGTTGGTTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>F2916-GCTGATCTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTGATCTAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>F2917-CGTTGAAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTTGAAGACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>F2918-ACAGAGTCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGAGTCAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>F2919-AACCACGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCACGAGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>F2920-TAGAGTGCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGAGTGCTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>F2921-CAACCAAGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACCAAGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>F2922-GTGCTACGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGCTACGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>F2923-AGCAACATCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCAACATCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>F2924-ATCGTCTTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCGTCTTCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>F2925-TGTCCATGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTCCATGATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>F2926-CGTAGGTTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTAGGTTGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>F2927-GTGAGAACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGAGAACAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>F2928-TAGGTCACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGGTCACACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>F2929-TCCTGTGGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTGTGGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>F2930-AGATCCTCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGATCCTCTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>F2931-CAACTCATGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACTCATGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>F2932-TCACTGTGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACTGTGTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>F2933-CAACCTGCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACCTGCTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>F2934-AGCTTCATCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCTTCATCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>F2935-GAACGTACGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACGTACGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>F2936-CTCAAGAGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCAAGAGCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>F2937-TGACCTGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACCTGAGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>F2938-TTGACGACAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGACGACAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>F2939-ATCTACCAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCTACCAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>F2940-GTCAGAGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCAGAGATCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F2941-ACTTCCAGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTTCCAGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F2942-ACAGACATCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGACATCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>F3</t>
   </si>
   <si>
-    <t>F2943-GGTACTAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTACTAGGATCGTCGGCAGCGTC</t>
+    <t>F2943-GAAGCAACTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGCAACTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>F2944-CTTGGACGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTGGACGTTTCGTCGGCAGCGTC</t>
+    <t>F2944-ATGTCCATGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGTCCATGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>F2945-AGACGTTCGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACGTTCGTTCGTCGGCAGCGTC</t>
+    <t>F2945-CACTTGGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACTTGGATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>F2946-AACCAAGTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCAAGTGCTCGTCGGCAGCGTC</t>
+    <t>F2946-ACCATCTGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCATCTGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>F2947-ACTCATGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCATGTGTTCGTCGGCAGCGTC</t>
+    <t>F2947-AGTGTACCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGTACCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>F2948-TACCATGCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACCATGCTATCGTCGGCAGCGTC</t>
+    <t>F2948-GAGACTAGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGACTAGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>F2949-AGTCAACCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCAACCTTTCGTCGGCAGCGTC</t>
+    <t>F2949-CACTGTACGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACTGTACGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>F2950-TAGGTGCTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGGTGCTAGTCGTCGGCAGCGTC</t>
+    <t>F2950-TTGAGGTACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGAGGTACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>F2951-TACTGTGTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTGTGTCCTCGTCGGCAGCGTC</t>
+    <t>F2951-TCCAACAACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCAACAACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>F2952-TAGGACTGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGGACTGCTTCGTCGGCAGCGTC</t>
+    <t>F2952-ATGATCACGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGATCACGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>F2953-GATGCTCATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGCTCATCTCGTCGGCAGCGTC</t>
+    <t>F2953-CTAGATGCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTAGATGCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>F2954-AGGTTCTGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTTCTGCATCGTCGGCAGCGTC</t>
+    <t>F2954-GTCGAGTGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCGAGTGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>F2955-GCATGAAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCATGAAGTCTCGTCGGCAGCGTC</t>
+    <t>F2955-TTGCTCACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGCTCACAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>F2956-ATGTCTCACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGTCTCACCTCGTCGGCAGCGTC</t>
+    <t>F2956-TGGACAGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGACAGTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>F2957-CTACCAGCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACCAGCTATCGTCGGCAGCGTC</t>
+    <t>F2957-CACTCACTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACTCACTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>F2958-GTGTCAGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGTCAGACTTCGTCGGCAGCGTC</t>
+    <t>F2958-CTACCACTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACCACTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>F2959-TCCTACAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTACAGTGTCGTCGGCAGCGTC</t>
+    <t>F2959-TCCATCCAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCATCCAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>F2960-ATCTCGTTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCTCGTTCATCGTCGGCAGCGTC</t>
+    <t>F2960-CATCATCAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCATCAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>F2961-AGTCTCATCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCTCATCTTCGTCGGCAGCGTC</t>
+    <t>F2961-GCTACAACTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTACAACTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>F2962-TCAGGTCTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGGTCTCATCGTCGGCAGCGTC</t>
+    <t>F2962-ATGCAAGGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGCAAGGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>F2963-TACTACTTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTACTTGCTCGTCGGCAGCGTC</t>
+    <t>F2963-TTGGTAGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGGTAGACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>F2964-CTCTCTAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCTCTAGGTTCGTCGGCAGCGTC</t>
+    <t>F2964-TGTACCTCCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTACCTCCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>F2965-ATGCAGTCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGCAGTCTATCGTCGGCAGCGTC</t>
+    <t>F2965-ACACACTCCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACACTCCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>F2966-TTCACCACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCACCACACTCGTCGGCAGCGTC</t>
+    <t>F2966-TCAGTTCCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGTTCCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>F2967-GAAGTCTACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGTCTACATCGTCGGCAGCGTC</t>
+    <t>F2967-GAAGACGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGACGATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>F2968-TCACAAGGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACAAGGAGTCGTCGGCAGCGTC</t>
+    <t>F2968-GAGAGAACTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGAGAACTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F2969-TTCTGAAGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCTGAAGCATCGTCGGCAGCGTC</t>
+    <t>F2969-ATCCTCATCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCCTCATCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F2970-GATGACACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGACACGTTCGTCGGCAGCGTC</t>
+    <t>F2970-AGATGTGAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGATGTGAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F2971-AGCTAGCTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCTAGCTGTTCGTCGGCAGCGTC</t>
+    <t>F2971-AGTAGAACGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTAGAACGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F2972-TCAGTCGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGTCGTCTTCGTCGGCAGCGTC</t>
+    <t>F2972-GCTAGAGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTAGAGTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F2973-TACTCCTGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTCCTGTCTCGTCGGCAGCGTC</t>
+    <t>F2973-CAACTCTCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACTCTCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F2974-AAGACAGCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGACAGCAATCGTCGGCAGCGTC</t>
+    <t>F2974-CTGACATCCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGACATCCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F2975-AGTCGAACTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCGAACTATCGTCGGCAGCGTC</t>
+    <t>F2975-AACAGATGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAGATGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F2976-TTCATCGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCATCGATCTCGTCGGCAGCGTC</t>
+    <t>F2976-AGATCACGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGATCACGTATCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
